--- a/media/text/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
+++ b/media/text/HITA Portfolio Management Applications Term Paper MIS 764.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\kennethlarotyamat.github.io\media\text\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648CF3EA-9AA5-4BA0-B1A8-AB7151CC79A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE131BA-4590-4CE2-9FFD-FCEBE30C4450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Randomly Selected" sheetId="3" r:id="rId1"/>
@@ -705,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41A0BDF-9C56-423A-A623-2C6B0F7D9FCE}">
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C63" sqref="A3:C63"/>
     </sheetView>
   </sheetViews>
@@ -1906,7 +1906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F32BA5-BEC9-427D-B98C-E966212B1516}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
